--- a/Plan2018_final.xlsx
+++ b/Plan2018_final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="360" windowWidth="14805" windowHeight="7755" tabRatio="663" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="360" windowWidth="14805" windowHeight="7755" tabRatio="663" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="14" r:id="rId1"/>
@@ -21,8 +21,6 @@
     <sheet name="預算" sheetId="43" r:id="rId12"/>
     <sheet name="emotion" sheetId="50" r:id="rId13"/>
     <sheet name="工作表1" sheetId="51" r:id="rId14"/>
-    <sheet name="工作表2" sheetId="53" r:id="rId15"/>
-    <sheet name="工作表3" sheetId="54" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">emotion2018!$A$1:$D$292</definedName>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="1396">
   <si>
     <t>今阿日上精油的課,會駛嗄依見面</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7208,10 +7206,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>+筯絡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -7934,16 +7928,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>飛帆就是純CD啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">他就是覺得我老
-and 覺得被故意刺激.被嘲笑我老
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">問了沒有得到答案,教練沒有回答,覺得不爽.
 如果問了答不到答案,把我們拉進這個群組,只是為了打廣告方便嗎
 那加入這個群組幹嘛.
@@ -8151,63 +8135,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>用指令call informatica</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用指令call FTP下載</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用指令connection SQL 然後do something</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎麼做新增/修改/刪除/query
-auth管控</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>grid怎麼做add button/edit button/del button</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>grid怎麼做分 頁.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎麼做報表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎麼從0做起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>環境建置等等的(多練,就能更熟)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">批次檔的使用
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>START iexplore.exe http://google.com
---rem
-open outlook
-open vs
-open line
-open folder
-open document
-copy bak
-@ECHO OFF
-CD C:\
-START MYAPI.EXE
-EXIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=BFkIFg1iFLo
 用google去看,人家怎麼說
 看別人的網站,看人家怎麼做.
@@ -8294,6 +8221,58 @@
 若是你,你會安怎
 1.感覺是我自己不要嗄說欲創啥的
 2.感覺這嗄沒啥,是佇緊張啥.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+minbunum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+運動(有氧/瑜珈)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+氣功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+筯絡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+按摩(筯絡)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018 總結</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.體悟到,要留時間乎朋友,課攏會駛請假.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.卑南年祭/鹽水峰炮/鬧土地/射耳祭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.minbunum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.抓龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.開始嗄人say hi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.氣功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.開始運動</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8525,7 +8504,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8580,6 +8559,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9007,7 +8992,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9020,12 +9004,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -9045,6 +9024,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -10049,7 +10030,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10214,7 +10195,7 @@
         <v>709</v>
       </c>
       <c r="F16" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H16" t="s">
         <v>1098</v>
@@ -10246,7 +10227,7 @@
         <v>697</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -10364,10 +10345,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="330">
       <c r="A1" s="138" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B1" s="128" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -10379,7 +10360,7 @@
         <v>1212</v>
       </c>
       <c r="B3" s="141" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="49.5">
@@ -10387,20 +10368,20 @@
         <v>1209</v>
       </c>
       <c r="B4" s="144" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="126" customFormat="1">
       <c r="A5" s="138" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B5" s="142" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="33">
       <c r="B6" s="143" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="33">
@@ -10408,7 +10389,7 @@
         <v>1210</v>
       </c>
       <c r="B7" s="143" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="33">
@@ -10416,7 +10397,7 @@
         <v>1211</v>
       </c>
       <c r="B8" s="142" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -10424,24 +10405,24 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="141" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B11" s="141" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="142" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B12" s="142"/>
     </row>
     <row r="13" spans="1:2" ht="66">
       <c r="A13" s="143" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B13" s="143" t="s">
         <v>1298</v>
-      </c>
-      <c r="B13" s="143" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -10449,7 +10430,7 @@
         <v>1214</v>
       </c>
       <c r="B14" s="142" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -10457,7 +10438,7 @@
         <v>1215</v>
       </c>
       <c r="B15" s="142" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -10468,10 +10449,10 @@
     </row>
     <row r="17" spans="1:2" ht="66">
       <c r="A17" s="143" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B17" s="143" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="33">
@@ -10479,69 +10460,69 @@
         <v>1213</v>
       </c>
       <c r="B18" s="143" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="33">
       <c r="A19" s="143" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B19" s="142" t="s">
         <v>1330</v>
-      </c>
-      <c r="B19" s="142" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="33">
       <c r="A20" s="142" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B20" s="143" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="142" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B21" s="142"/>
     </row>
     <row r="22" spans="1:2" ht="33">
       <c r="A22" s="142" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B22" s="143" t="s">
         <v>1342</v>
-      </c>
-      <c r="B22" s="143" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="132">
       <c r="A23" s="145" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B23" s="146" t="s">
         <v>1344</v>
-      </c>
-      <c r="B23" s="146" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="63" customFormat="1">
       <c r="A24" s="142" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B24" s="142" t="s">
         <v>1347</v>
-      </c>
-      <c r="B24" s="142" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="63" customFormat="1">
       <c r="A25" s="142" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B25" s="142" t="s">
         <v>1349</v>
-      </c>
-      <c r="B25" s="142" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="63" customFormat="1" ht="33">
       <c r="A26" s="142" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B26" s="143" t="s">
         <v>1351</v>
-      </c>
-      <c r="B26" s="143" t="s">
-        <v>1352</v>
       </c>
     </row>
   </sheetData>
@@ -10568,12 +10549,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="107.25" customHeight="1">
-      <c r="A1" s="160" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
+      <c r="A1" s="158" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
@@ -10589,11 +10570,11 @@
       <c r="Q1" s="46"/>
     </row>
     <row r="2" spans="1:17" ht="163.5" customHeight="1">
-      <c r="A2" s="163" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
+      <c r="A2" s="161" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
       <c r="D2" s="94"/>
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
@@ -10610,7 +10591,7 @@
       <c r="Q2" s="46"/>
     </row>
     <row r="3" spans="1:17" s="63" customFormat="1" ht="42" customHeight="1">
-      <c r="A3" s="152"/>
+      <c r="A3" s="151"/>
       <c r="B3" s="150"/>
       <c r="D3" s="136"/>
       <c r="E3" s="137"/>
@@ -10628,14 +10609,14 @@
       <c r="Q3" s="137"/>
     </row>
     <row r="4" spans="1:17" s="63" customFormat="1" ht="148.5">
-      <c r="A4" s="153">
+      <c r="A4" s="152">
         <v>43452</v>
       </c>
       <c r="B4" s="150" t="s">
         <v>627</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="D4" s="136"/>
       <c r="E4" s="137"/>
@@ -10653,14 +10634,14 @@
       <c r="Q4" s="137"/>
     </row>
     <row r="5" spans="1:17" s="63" customFormat="1" ht="66">
-      <c r="A5" s="153">
+      <c r="A5" s="152">
         <v>43451</v>
       </c>
       <c r="B5" s="150" t="s">
         <v>627</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="D5" s="136"/>
       <c r="E5" s="137"/>
@@ -10678,14 +10659,14 @@
       <c r="Q5" s="137"/>
     </row>
     <row r="6" spans="1:17" s="63" customFormat="1">
-      <c r="A6" s="153">
+      <c r="A6" s="152">
         <v>43446</v>
       </c>
       <c r="B6" s="150" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C6" s="63" t="s">
         <v>1361</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>1364</v>
       </c>
       <c r="D6" s="136"/>
       <c r="E6" s="137"/>
@@ -10703,14 +10684,14 @@
       <c r="Q6" s="137"/>
     </row>
     <row r="7" spans="1:17" s="63" customFormat="1" ht="115.5">
-      <c r="A7" s="153">
+      <c r="A7" s="152">
         <v>43446</v>
       </c>
       <c r="B7" s="150" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="D7" s="136"/>
       <c r="E7" s="137"/>
@@ -10728,14 +10709,14 @@
       <c r="Q7" s="137"/>
     </row>
     <row r="8" spans="1:17" s="63" customFormat="1" ht="66">
-      <c r="A8" s="153">
+      <c r="A8" s="152">
         <v>43446</v>
       </c>
       <c r="B8" s="150" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="D8" s="136"/>
       <c r="E8" s="137"/>
@@ -10753,14 +10734,14 @@
       <c r="Q8" s="137"/>
     </row>
     <row r="9" spans="1:17" s="63" customFormat="1" ht="66">
-      <c r="A9" s="153">
+      <c r="A9" s="152">
         <v>43446</v>
       </c>
       <c r="B9" s="148" t="s">
         <v>627</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="D9" s="136"/>
       <c r="E9" s="137"/>
@@ -10778,14 +10759,14 @@
       <c r="Q9" s="137"/>
     </row>
     <row r="10" spans="1:17" s="63" customFormat="1" ht="49.5">
-      <c r="A10" s="153">
+      <c r="A10" s="152">
         <v>43446</v>
       </c>
       <c r="B10" s="148" t="s">
         <v>627</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D10" s="136"/>
       <c r="E10" s="137"/>
@@ -10803,14 +10784,14 @@
       <c r="Q10" s="137"/>
     </row>
     <row r="11" spans="1:17" s="63" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A11" s="153">
+      <c r="A11" s="152">
         <v>43446</v>
       </c>
       <c r="B11" s="148" t="s">
         <v>627</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D11" s="136"/>
       <c r="E11" s="137"/>
@@ -10832,10 +10813,10 @@
         <v>43440</v>
       </c>
       <c r="B12" s="150" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C12" s="127" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D12" s="148"/>
     </row>
@@ -10844,22 +10825,22 @@
         <v>43405</v>
       </c>
       <c r="B13" s="150" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C13" s="127" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D13" s="148"/>
     </row>
     <row r="14" spans="1:17" s="63" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A14" s="153">
+      <c r="A14" s="152">
         <v>43431</v>
       </c>
       <c r="B14" s="150" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D14" s="136"/>
       <c r="E14" s="137"/>
@@ -10877,14 +10858,14 @@
       <c r="Q14" s="137"/>
     </row>
     <row r="15" spans="1:17" s="63" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A15" s="153">
+      <c r="A15" s="152">
         <v>43431</v>
       </c>
       <c r="B15" s="150" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C15" s="63" t="s">
         <v>1264</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>1265</v>
       </c>
       <c r="D15" s="136"/>
       <c r="E15" s="137"/>
@@ -10902,14 +10883,14 @@
       <c r="Q15" s="137"/>
     </row>
     <row r="16" spans="1:17" s="63" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A16" s="153">
+      <c r="A16" s="152">
         <v>43427</v>
       </c>
       <c r="B16" s="148" t="s">
         <v>627</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D16" s="136"/>
       <c r="E16" s="137"/>
@@ -10927,14 +10908,14 @@
       <c r="Q16" s="137"/>
     </row>
     <row r="17" spans="1:17" s="122" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A17" s="154">
+      <c r="A17" s="153">
         <v>43424</v>
       </c>
       <c r="B17" s="147" t="s">
         <v>627</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D17" s="121"/>
       <c r="E17" s="46"/>
@@ -10952,14 +10933,14 @@
       <c r="Q17" s="46"/>
     </row>
     <row r="18" spans="1:17" s="122" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A18" s="154">
+      <c r="A18" s="153">
         <v>43425</v>
       </c>
       <c r="B18" s="101" t="s">
         <v>627</v>
       </c>
       <c r="C18" s="122" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D18" s="121"/>
       <c r="E18" s="46"/>
@@ -10977,7 +10958,7 @@
       <c r="Q18" s="46"/>
     </row>
     <row r="19" spans="1:17" s="117" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A19" s="155">
+      <c r="A19" s="154">
         <v>43376</v>
       </c>
       <c r="B19" s="101" t="s">
@@ -11002,7 +10983,7 @@
       <c r="Q19" s="46"/>
     </row>
     <row r="20" spans="1:17" s="115" customFormat="1" ht="33">
-      <c r="A20" s="155">
+      <c r="A20" s="154">
         <v>43376</v>
       </c>
       <c r="B20" s="101" t="s">
@@ -11027,14 +11008,14 @@
       <c r="Q20" s="46"/>
     </row>
     <row r="21" spans="1:17" s="114" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A21" s="155">
+      <c r="A21" s="154">
         <v>43357</v>
       </c>
       <c r="B21" s="101" t="s">
         <v>1229</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D21" s="102"/>
       <c r="E21" s="46"/>
@@ -11384,10 +11365,10 @@
   <sheetData>
     <row r="1" spans="1:16" s="123" customFormat="1">
       <c r="A1" s="15" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1268</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="123" customFormat="1"/>
@@ -11716,42 +11697,42 @@
   <sheetData>
     <row r="1" spans="1:1" ht="19.5">
       <c r="A1" s="119" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="19.5">
       <c r="A3" s="119" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="19.5">
       <c r="A4" s="120" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="19.5">
       <c r="A5" s="120" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="19.5">
       <c r="A7" s="119" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="19.5">
       <c r="A9" s="119" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="19.5">
       <c r="A11" s="119" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="66">
       <c r="A13" s="9" t="s">
-        <v>1393</v>
+        <v>1379</v>
       </c>
     </row>
   </sheetData>
@@ -11773,197 +11754,93 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1" t="s">
         <v>1278</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1279</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1280</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1281</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1282</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1283</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B2" s="124" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C2" s="124" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D2" s="124" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E2" s="124" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="124" customFormat="1"/>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B4" s="124" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D4" s="124" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E4" s="124" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B5" s="124" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C5" t="s">
         <v>1286</v>
       </c>
-      <c r="B5" s="124" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1287</v>
       </c>
-      <c r="D5" t="s">
-        <v>1288</v>
-      </c>
       <c r="E5" s="124" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="C6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D6" t="s">
         <v>1290</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>1291</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="E7" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="49.5">
-      <c r="A1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="151"/>
-    <col min="2" max="2" width="38" style="156" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="112.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="156" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="156" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="156" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="33">
-      <c r="B5" s="157" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="156" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="156" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="156" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="156" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="156" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="231">
-      <c r="B15" s="157" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>1386</v>
+        <v>1292</v>
       </c>
     </row>
   </sheetData>
@@ -11978,7 +11855,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11995,14 +11872,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="53" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E1"/>
       <c r="F1" s="15" t="s">
         <v>871</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -12231,19 +12108,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="72.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.125" style="155" customWidth="1"/>
+    <col min="12" max="12" width="72.125" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="25" t="s">
         <v>755</v>
       </c>
@@ -12254,11 +12132,14 @@
         <v>759</v>
       </c>
       <c r="H1" s="42"/>
-      <c r="K1" s="25" t="s">
+      <c r="J1" s="163" t="s">
+        <v>1388</v>
+      </c>
+      <c r="L1" s="25" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="47" t="s">
         <v>712</v>
       </c>
@@ -12269,11 +12150,14 @@
         <v>517</v>
       </c>
       <c r="H2" s="42"/>
-      <c r="K2" s="42" t="s">
+      <c r="J2" s="164" t="s">
+        <v>1389</v>
+      </c>
+      <c r="L2" s="42" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="43" t="s">
         <v>766</v>
       </c>
@@ -12284,11 +12168,14 @@
         <v>539</v>
       </c>
       <c r="H3" s="42"/>
-      <c r="K3" s="158" t="s">
+      <c r="J3" s="164" t="s">
+        <v>1390</v>
+      </c>
+      <c r="L3" s="156" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="43" t="s">
         <v>765</v>
       </c>
@@ -12299,9 +12186,12 @@
         <v>538</v>
       </c>
       <c r="H4" s="42"/>
-      <c r="K4" s="158"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="164" t="s">
+        <v>1391</v>
+      </c>
+      <c r="L4" s="156"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="43" t="s">
         <v>744</v>
       </c>
@@ -12310,9 +12200,12 @@
       </c>
       <c r="G5" s="42"/>
       <c r="H5" s="42"/>
-      <c r="K5" s="158"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="J5" s="164" t="s">
+        <v>1392</v>
+      </c>
+      <c r="L5" s="156"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="43" t="s">
         <v>745</v>
       </c>
@@ -12321,9 +12214,12 @@
         <v>536</v>
       </c>
       <c r="H6" s="42"/>
-      <c r="K6" s="158"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="J6" s="164" t="s">
+        <v>1393</v>
+      </c>
+      <c r="L6" s="156"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="43" t="s">
         <v>746</v>
       </c>
@@ -12336,9 +12232,12 @@
       <c r="H7" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="K7" s="43"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="J7" s="164" t="s">
+        <v>1394</v>
+      </c>
+      <c r="L7" s="43"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="42" t="s">
         <v>567</v>
       </c>
@@ -12349,11 +12248,14 @@
         <v>1002</v>
       </c>
       <c r="H8" s="42"/>
-      <c r="K8" s="42" t="s">
+      <c r="J8" s="164" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L8" s="42" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="43" t="s">
         <v>747</v>
       </c>
@@ -12362,11 +12264,11 @@
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
-      <c r="K9" s="42" t="s">
+      <c r="L9" s="42" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="43" t="s">
         <v>748</v>
       </c>
@@ -12376,7 +12278,7 @@
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="42"/>
       <c r="C11" s="42" t="s">
         <v>739</v>
@@ -12385,13 +12287,13 @@
         <v>713</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>1237</v>
-      </c>
-      <c r="K11" s="43" t="s">
+        <v>1386</v>
+      </c>
+      <c r="L11" s="43" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="43" t="s">
         <v>749</v>
       </c>
@@ -12404,22 +12306,22 @@
       <c r="H12" s="42" t="s">
         <v>1175</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="L12" s="42" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="43" t="s">
         <v>750</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>743</v>
       </c>
-      <c r="K13" s="43" t="s">
+      <c r="L13" s="43" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="43" t="s">
         <v>751</v>
       </c>
@@ -12427,7 +12329,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="43" t="s">
         <v>752</v>
       </c>
@@ -12437,11 +12339,11 @@
       <c r="G15" s="42" t="s">
         <v>513</v>
       </c>
-      <c r="K15" s="159" t="s">
+      <c r="L15" s="157" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="43"/>
       <c r="C16" s="42" t="s">
         <v>762</v>
@@ -12449,9 +12351,9 @@
       <c r="G16" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="K16" s="159"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="157"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="43" t="s">
         <v>877</v>
       </c>
@@ -12461,68 +12363,79 @@
       <c r="G17" s="42" t="s">
         <v>546</v>
       </c>
-      <c r="K17" s="159"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="157"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="43" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" s="43" t="s">
         <v>1199</v>
       </c>
-      <c r="K19" s="42" t="s">
+      <c r="L19" s="42" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="G20" s="25" t="s">
         <v>764</v>
       </c>
-      <c r="K20" s="42" t="s">
+      <c r="L20" s="42" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
+      <c r="A21" s="43" t="s">
+        <v>1232</v>
+      </c>
       <c r="G21" s="43" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22" s="43" t="s">
-        <v>1232</v>
+        <v>1387</v>
       </c>
       <c r="D22" s="43" t="s">
         <v>997</v>
       </c>
-      <c r="K22" s="42" t="s">
+      <c r="L22" s="42" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="42"/>
+    <row r="23" spans="1:12">
+      <c r="A23" s="43" t="s">
+        <v>1383</v>
+      </c>
       <c r="D23" s="42" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
+      <c r="A24" s="43" t="s">
+        <v>1385</v>
+      </c>
       <c r="D24" s="42" t="s">
         <v>999</v>
       </c>
-      <c r="K24" s="43" t="s">
+      <c r="L24" s="43" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
+      <c r="A25" s="43" t="s">
+        <v>1384</v>
+      </c>
       <c r="D25" s="42" t="s">
         <v>1000</v>
       </c>
-      <c r="K25" s="43" t="s">
+      <c r="L25" s="43" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" s="43" t="s">
         <v>892</v>
       </c>
@@ -12530,112 +12443,112 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27" s="43" t="s">
         <v>893</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>1256</v>
-      </c>
-      <c r="K27" s="25" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L27" s="25" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28" s="47" t="s">
         <v>1197</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>1328</v>
-      </c>
-      <c r="K28" s="48" t="s">
+        <v>1327</v>
+      </c>
+      <c r="L28" s="48" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29" s="47" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="K31" s="49" t="s">
+    <row r="31" spans="1:12">
+      <c r="L31" s="49" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="33">
+    <row r="32" spans="1:12" ht="33">
       <c r="A32" s="34" t="s">
         <v>891</v>
       </c>
-      <c r="K32" s="44" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="K33" s="44" t="s">
+      <c r="L32" s="44" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="L33" s="44" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:15">
       <c r="A34" s="47" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
-      <c r="K35" s="42" t="s">
+    <row r="35" spans="1:15">
+      <c r="L35" s="42" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
-      <c r="K36" s="42" t="s">
+    <row r="36" spans="1:15">
+      <c r="L36" s="42" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
-      <c r="J38" s="51">
+    <row r="38" spans="1:15">
+      <c r="K38" s="51">
         <v>43191</v>
       </c>
-      <c r="K38" s="123" t="s">
+      <c r="L38" s="123" t="s">
         <v>810</v>
       </c>
-      <c r="L38" s="123" t="s">
+      <c r="M38" s="123" t="s">
         <v>811</v>
       </c>
-      <c r="M38" s="45" t="s">
+      <c r="N38" s="45" t="s">
         <v>576</v>
       </c>
-      <c r="N38" s="45" t="s">
+      <c r="O38" s="45" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
-      <c r="J39" s="51">
+    <row r="39" spans="1:15">
+      <c r="K39" s="51">
         <v>43199</v>
       </c>
-      <c r="K39" s="123" t="s">
+      <c r="L39" s="123" t="s">
         <v>807</v>
       </c>
-      <c r="L39" s="123" t="s">
+      <c r="M39" s="123" t="s">
         <v>808</v>
       </c>
-      <c r="M39" s="45" t="s">
+      <c r="N39" s="45" t="s">
         <v>577</v>
       </c>
-      <c r="N39" s="123"/>
+      <c r="O39" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="L15:L17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K38:K39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L38:L39">
       <formula1>"資料撈取,ICRM開發,維護,研究"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K28" r:id="rId1"/>
-    <hyperlink ref="K31" r:id="rId2"/>
+    <hyperlink ref="L28" r:id="rId1"/>
+    <hyperlink ref="L31" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15004,16 +14917,16 @@
       <c r="A1" s="51">
         <v>42906</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="158" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
     </row>
     <row r="2" spans="1:9" s="97" customFormat="1">
       <c r="A2" s="113" t="s">
@@ -17602,8 +17515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17631,7 +17544,7 @@
         <v>43461</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>1396</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="330">
@@ -17639,10 +17552,10 @@
         <v>43460</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>1394</v>
+        <v>1380</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>1395</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="115.5">
@@ -17650,7 +17563,7 @@
         <v>43455</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>1391</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="148.5">
@@ -17661,7 +17574,7 @@
         <v>1040</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>1390</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33">
@@ -17672,7 +17585,7 @@
         <v>661</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="49.5">
@@ -17683,7 +17596,7 @@
         <v>661</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5">
@@ -17691,7 +17604,7 @@
         <v>43448</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="198">
@@ -17699,10 +17612,10 @@
         <v>43447</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="214.5">
@@ -17710,7 +17623,7 @@
         <v>43446</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="115.5">
@@ -17721,7 +17634,7 @@
         <v>1040</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="198">
@@ -17732,10 +17645,10 @@
         <v>1040</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="126" customHeight="1">
@@ -17743,10 +17656,10 @@
         <v>43445</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="132">
@@ -17754,10 +17667,10 @@
         <v>43440</v>
       </c>
       <c r="B14" s="57" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C14" s="58" t="s">
         <v>1276</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="33">
@@ -17765,7 +17678,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="49.5">
@@ -17773,10 +17686,10 @@
         <v>43416</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="148.5">
@@ -17784,10 +17697,10 @@
         <v>43413</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="33">
@@ -17795,10 +17708,10 @@
         <v>43406</v>
       </c>
       <c r="B18" s="57" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C18" s="58" t="s">
         <v>1254</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="82.5">
@@ -17806,10 +17719,10 @@
         <v>43405</v>
       </c>
       <c r="B19" s="57" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C19" s="58" t="s">
         <v>1252</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="66">
@@ -17817,10 +17730,10 @@
         <v>43404</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="33">
@@ -17828,10 +17741,10 @@
         <v>43399</v>
       </c>
       <c r="B21" s="57" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C21" s="58" t="s">
         <v>1249</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="33">
@@ -17839,10 +17752,10 @@
         <v>43399</v>
       </c>
       <c r="B22" s="57" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C22" s="58" t="s">
         <v>1240</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="165">
@@ -17850,10 +17763,10 @@
         <v>43399</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C23" s="118" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="247.5">
@@ -20794,32 +20707,32 @@
   <sheetData>
     <row r="1" spans="1:5" s="62" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5">
       <c r="A2" s="5" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C3" s="64"/>
     </row>
     <row r="4" spans="1:5" ht="66">
       <c r="A4" s="4" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1045</v>
@@ -20828,15 +20741,15 @@
     </row>
     <row r="5" spans="1:5" ht="33">
       <c r="A5" s="132" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>1317</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="66">
       <c r="A6" s="5" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>1047</v>
@@ -20846,7 +20759,7 @@
     </row>
     <row r="7" spans="1:5" ht="33">
       <c r="A7" s="132" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>1020</v>
@@ -20856,16 +20769,16 @@
     </row>
     <row r="8" spans="1:5" ht="247.5">
       <c r="A8" s="5" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C8" s="125"/>
     </row>
     <row r="9" spans="1:5" ht="99">
       <c r="A9" s="5" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>1029</v>
@@ -20873,38 +20786,38 @@
     </row>
     <row r="10" spans="1:5" ht="49.5">
       <c r="A10" s="5" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="99">
       <c r="A11" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>1326</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>1327</v>
       </c>
       <c r="D11" s="62"/>
     </row>
     <row r="12" spans="1:5" ht="66">
       <c r="A12" s="5" t="s">
-        <v>1388</v>
+        <v>1374</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="C12" s="62"/>
     </row>
     <row r="13" spans="1:5" ht="33">
       <c r="B13" s="5" t="s">
-        <v>1389</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="99">
       <c r="B14" s="5" t="s">
-        <v>1392</v>
+        <v>1378</v>
       </c>
       <c r="C14" s="64"/>
     </row>
@@ -20920,8 +20833,8 @@
       <c r="D25" s="64"/>
     </row>
     <row r="26" spans="1:5" ht="95.25" customHeight="1">
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5"/>
@@ -21019,7 +20932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -21104,7 +21017,7 @@
         <v>558</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -21246,10 +21159,10 @@
       <c r="A28" s="63" t="s">
         <v>926</v>
       </c>
-      <c r="C28" s="162" t="s">
+      <c r="C28" s="160" t="s">
         <v>1132</v>
       </c>
-      <c r="D28" s="161"/>
+      <c r="D28" s="159"/>
     </row>
     <row r="29" spans="1:4" ht="49.5">
       <c r="A29" s="64" t="s">
@@ -21271,22 +21184,22 @@
     </row>
     <row r="36" spans="1:5">
       <c r="B36" s="129" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="B37" s="130" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="B38" s="130" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="B39" s="130" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -21294,17 +21207,17 @@
     </row>
     <row r="41" spans="1:5">
       <c r="B41" s="130" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="B42" s="130" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="B43" s="131" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="19.5">
